--- a/public/templates/modelo_transacoes.xlsx
+++ b/public/templates/modelo_transacoes.xlsx
@@ -1,41 +1,107 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123EE9C8-1212-44CC-B514-330BE980C074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Transações" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Descrição</t>
+  </si>
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Recorrente</t>
+  </si>
+  <si>
+    <t>Frequência</t>
+  </si>
+  <si>
+    <t>Salário</t>
+  </si>
+  <si>
+    <t>Receita</t>
+  </si>
+  <si>
+    <t>Não</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Alimentação</t>
+  </si>
+  <si>
+    <t>Despesa</t>
+  </si>
+  <si>
+    <t>Habitação</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>INSTRUÇÕES:</t>
+  </si>
+  <si>
+    <t>Tipo: "Receita" ou "Despesa"</t>
+  </si>
+  <si>
+    <t>IMPORTAÇÃO DE TRANSAÇÕES</t>
+  </si>
+  <si>
+    <t>Data: DD-MM-YYYY (ex: 21/09/2025)</t>
+  </si>
+  <si>
+    <t>Mercado</t>
+  </si>
+  <si>
+    <t>Aluguel</t>
+  </si>
+  <si>
+    <t>OBS: Apagar as informações de exemplo abaixo antes de introduzir as suas</t>
+  </si>
+  <si>
+    <t>Frequência: Semanal, Quinzenal, Mensal, Trimestral, Semestral, Anual (opcional)</t>
+  </si>
+  <si>
+    <t>mensal</t>
+  </si>
+  <si>
+    <t>Recorrente: "Sim" ou "Não" (essa opção é pra mencionar que esse gasto é feito com frequencia) ex: assinaturas de serviços, arrendamento, etc,</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -43,16 +109,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -60,18 +152,71 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,84 +541,1237 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G124"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.19921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.69921875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.69921875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.8984375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="13.296875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="14.09765625" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="8.796875" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Data</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Descrição</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Categoria</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Valor</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Tipo</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Recorrente</v>
-      </c>
-      <c r="G1" t="str">
-        <v>Frequência</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>2024-12-11</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Teste Upload Custom</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Alimentação</v>
-      </c>
-      <c r="D2" t="str">
-        <v>75.50</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Despesa</v>
-      </c>
-      <c r="F2" t="str">
-        <v>Não</v>
-      </c>
-      <c r="G2" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>2024-12-12</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Salário Teste</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Renda</v>
-      </c>
-      <c r="D3" t="str">
-        <v>5000.00</v>
-      </c>
-      <c r="E3" t="str">
-        <v>Receita</v>
-      </c>
-      <c r="F3" t="str">
-        <v>Não</v>
-      </c>
-      <c r="G3" t="str">
-        <v/>
-      </c>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>46006</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="9">
+        <v>500000</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>46007</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="9">
+        <v>100000</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>46008</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="9">
+        <v>150000</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" s="3"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" s="3"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" s="3"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" s="3"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" s="3"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" s="3"/>
+      <c r="B102" s="3"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" s="3"/>
+      <c r="B103" s="3"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" s="3"/>
+      <c r="B104" s="3"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" s="3"/>
+      <c r="B105" s="3"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" s="3"/>
+      <c r="B106" s="3"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" s="3"/>
+      <c r="B107" s="3"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" s="3"/>
+      <c r="B108" s="3"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" s="3"/>
+      <c r="B109" s="3"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" s="3"/>
+      <c r="B110" s="3"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" s="3"/>
+      <c r="B111" s="3"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" s="3"/>
+      <c r="B112" s="3"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113" s="3"/>
+      <c r="B113" s="3"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" s="3"/>
+      <c r="B114" s="3"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115" s="3"/>
+      <c r="B115" s="3"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" s="3"/>
+      <c r="B116" s="3"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117" s="3"/>
+      <c r="B117" s="3"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118" s="3"/>
+      <c r="B118" s="3"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119" s="3"/>
+      <c r="B119" s="3"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120" s="3"/>
+      <c r="B120" s="3"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121" s="3"/>
+      <c r="B121" s="3"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122" s="3"/>
+      <c r="B122" s="3"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123" s="3"/>
+      <c r="B123" s="3"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124" s="3"/>
+      <c r="B124" s="3"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:G7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G3"/>
+    <ignoredError sqref="A9:G9 A13 C10 E10:G10 C12 C11 E11:G11 E12:F12 C13:G13" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>